--- a/datafiles/businessReportData.xlsx
+++ b/datafiles/businessReportData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B73487-38B0-4548-9657-C7287B2A6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975DDE71-B40C-9C4A-889D-E81F2F6ED96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="10920" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="10920" windowWidth="14800" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -541,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE4DC80-408A-914B-B5DC-B62726191DCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45E5868-4922-1B4E-9B24-09726ADCD27D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/datafiles/businessReportData.xlsx
+++ b/datafiles/businessReportData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975DDE71-B40C-9C4A-889D-E81F2F6ED96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418C4432-9F7E-4515-8571-E19C80D628B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="10920" windowWidth="14800" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="10920" windowWidth="14800" windowHeight="8020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,6 +36,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
+    <t>reportType</t>
+  </si>
+  <si>
     <t>exDay</t>
   </si>
   <si>
@@ -50,16 +57,13 @@
     <t>exYear2</t>
   </si>
   <si>
+    <t>searchData</t>
+  </si>
+  <si>
+    <t>reportFilter</t>
+  </si>
+  <si>
     <t>Users Details</t>
-  </si>
-  <si>
-    <t>reportFilter</t>
-  </si>
-  <si>
-    <t>searchData</t>
-  </si>
-  <si>
-    <t>reportType</t>
   </si>
   <si>
     <t>MAR</t>
@@ -458,47 +462,47 @@
       <selection activeCell="B2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -548,40 +552,40 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/datafiles/businessReportData.xlsx
+++ b/datafiles/businessReportData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gourav.sharma\IdeaProjects\falcon_project\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418C4432-9F7E-4515-8571-E19C80D628B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="10920" windowWidth="14800" windowHeight="8020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>reportType</t>
   </si>
@@ -76,12 +75,21 @@
   </si>
   <si>
     <t>First Name</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -134,9 +142,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -455,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:I2"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -471,32 +478,32 @@
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -505,39 +512,59 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2022</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="J5" s="1"/>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,41 +572,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45E5868-4922-1B4E-9B24-09726ADCD27D}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -609,6 +639,35 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/datafiles/businessReportData.xlsx
+++ b/datafiles/businessReportData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>reportType</t>
   </si>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -642,35 +642,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>2022</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
